--- a/data/outputs/OR_altmetric/61.xlsx
+++ b/data/outputs/OR_altmetric/61.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE51"/>
+  <dimension ref="A1:CF51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1031,6 +1036,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1284,6 +1292,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1527,6 +1538,9 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1770,6 +1784,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2019,6 +2036,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2276,6 +2296,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2521,6 +2544,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2770,6 +2796,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3027,6 +3056,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3284,6 +3316,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3529,6 +3564,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3778,6 +3816,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4033,6 +4074,9 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4276,6 +4320,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4525,6 +4572,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4774,6 +4824,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5021,6 +5074,9 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5260,6 +5316,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5503,6 +5562,9 @@
         <v>0</v>
       </c>
       <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5746,6 +5808,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6005,6 +6070,9 @@
         <v>0</v>
       </c>
       <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6252,6 +6320,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6499,6 +6570,9 @@
         <v>0</v>
       </c>
       <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6738,6 +6812,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6987,6 +7064,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7240,6 +7320,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7493,6 +7576,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7742,6 +7828,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7995,6 +8084,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8244,6 +8336,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8493,6 +8588,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8738,6 +8836,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8991,6 +9092,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9238,6 +9342,9 @@
         <v>0</v>
       </c>
       <c r="CE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9481,6 +9588,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9720,6 +9830,9 @@
         <v>0</v>
       </c>
       <c r="CE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9951,6 +10064,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10184,6 +10300,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10427,6 +10546,9 @@
         <v>0</v>
       </c>
       <c r="CE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10662,6 +10784,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10899,6 +11024,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11132,6 +11260,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11369,6 +11500,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11602,6 +11736,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11831,6 +11968,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12066,6 +12206,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12301,6 +12444,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12538,6 +12684,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12785,6 +12934,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13028,6 +13180,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
